--- a/tab/exclusion.xlsx
+++ b/tab/exclusion.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anamr\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3f6ff03fe943b773/Documents/proyectos/sidoNet/tab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A39B107-5612-4FD3-915C-1B414E9C2841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{3A39B107-5612-4FD3-915C-1B414E9C2841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6FC0AC4-BA50-4E41-95C7-5B5B9FBFE655}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1410" windowWidth="29040" windowHeight="15840" xr2:uid="{827DD8E3-69BD-4A57-8C96-35C157D79FA2}"/>
+    <workbookView xWindow="28800" yWindow="-810" windowWidth="29070" windowHeight="15720" xr2:uid="{827DD8E3-69BD-4A57-8C96-35C157D79FA2}"/>
   </bookViews>
   <sheets>
     <sheet name="exclusion_estimado" sheetId="1" r:id="rId1"/>
@@ -44,18 +44,9 @@
     <t>OTRO</t>
   </si>
   <si>
-    <t>Excluidos</t>
-  </si>
-  <si>
     <t>SÍ</t>
   </si>
   <si>
-    <t>TAMAÑO POBLACIONAL</t>
-  </si>
-  <si>
-    <t>MOTIVO DE EXCLUSIÓN</t>
-  </si>
-  <si>
     <t>NO IMPARTEN CLASES EN COLEGIOS, SOLO EN ESCUELAS OFICIALES DE IDIOMAS</t>
   </si>
   <si>
@@ -74,12 +65,6 @@
     <t>CUERPO A EXTINGUIR</t>
   </si>
   <si>
-    <t>MUESTRA ESTIMADA PARA UN MUESTREO ESTRATIFICADO CON AFIJACIÓN PROPORCIONAL AL CUERPO DOCENTE</t>
-  </si>
-  <si>
-    <t>CUERPO</t>
-  </si>
-  <si>
     <t>TOTAL</t>
   </si>
   <si>
@@ -135,6 +120,21 @@
   </si>
   <si>
     <t xml:space="preserve">0597-CUERPO DE MAESTROS </t>
+  </si>
+  <si>
+    <t>ex</t>
+  </si>
+  <si>
+    <t>mex</t>
+  </si>
+  <si>
+    <t>tpe</t>
+  </si>
+  <si>
+    <t>cue</t>
+  </si>
+  <si>
+    <t>meap</t>
   </si>
 </sst>
 </file>
@@ -288,17 +288,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A3CB3C69-2FB0-47EE-8EA5-47F1B497A1EC}" name="Tabla1" displayName="Tabla1" ref="B2:F21" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="B2:F21" xr:uid="{A3CB3C69-2FB0-47EE-8EA5-47F1B497A1EC}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:E21">
-    <sortCondition ref="D2:D21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A3CB3C69-2FB0-47EE-8EA5-47F1B497A1EC}" name="Tabla1" displayName="Tabla1" ref="A1:E20" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E20" xr:uid="{A3CB3C69-2FB0-47EE-8EA5-47F1B497A1EC}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D20">
+    <sortCondition ref="C1:C20"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{486AA5D3-2B5A-4AAB-B66C-48181124F6B9}" name="Excluidos" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{A2DAAC71-F830-4FAC-92DF-737993116860}" name="MOTIVO DE EXCLUSIÓN" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{6DA43692-2649-4A37-996F-0EA56CFD7678}" name="TAMAÑO POBLACIONAL" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{D54D72BE-C392-4E8F-A097-24DDD8ACFED6}" name="CUERPO" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{EFC0DC42-FC12-450A-84DF-72221369491C}" name="MUESTRA ESTIMADA PARA UN MUESTREO ESTRATIFICADO CON AFIJACIÓN PROPORCIONAL AL CUERPO DOCENTE" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{486AA5D3-2B5A-4AAB-B66C-48181124F6B9}" name="ex" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{A2DAAC71-F830-4FAC-92DF-737993116860}" name="mex" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{6DA43692-2649-4A37-996F-0EA56CFD7678}" name="tpe" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{D54D72BE-C392-4E8F-A097-24DDD8ACFED6}" name="cue" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{EFC0DC42-FC12-450A-84DF-72221369491C}" name="meap" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -601,330 +601,330 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70141C24-5159-4CF9-A72A-C52C43ECADBF}">
-  <dimension ref="B2:F22"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="37.88671875" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" customWidth="1"/>
-    <col min="5" max="5" width="65.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="48.109375" customWidth="1"/>
+    <col min="2" max="2" width="37.88671875" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="65.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1">
+        <v>4</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1">
+        <v>4</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1">
+        <v>6</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>11</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="2">
+        <v>21</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1">
+        <v>29</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C9" s="1">
+        <v>42</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1">
+        <v>71</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="2">
+        <v>142</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1">
+        <v>182</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="C13" s="1">
+        <v>425</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="2">
+        <v>436</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="1">
+        <v>453</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="2">
+        <v>635</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
+      <c r="E16" s="7">
         <v>3</v>
       </c>
-      <c r="C3" s="4" t="s">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="2">
+        <v>1064</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="2">
+        <v>6813</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="7">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="2">
+        <v>10426</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="7">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1">
-        <v>2</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="1">
-        <v>4</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="1">
-        <v>4</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="1">
-        <v>6</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="1">
-        <v>11</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="2">
-        <v>21</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="1">
-        <v>29</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="1">
-        <v>42</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="1">
-        <v>71</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="2">
-        <v>142</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="1">
-        <v>182</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="1">
-        <v>425</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="2">
-        <v>436</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="1">
-        <v>453</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="2">
-        <v>635</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="2">
-        <v>1064</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="2">
-        <v>6813</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F19" s="7">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="2">
-        <v>10426</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F20" s="7">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3">
-        <f>D20+D19+D18+D17+D15+D12+D8</f>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3">
+        <f>C19+C18+C17+C16+C14+C11+C7</f>
         <v>19537</v>
       </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="6">
-        <f>SUM(F8:F20)</f>
+      <c r="D21" s="3"/>
+      <c r="E21" s="6">
+        <f>SUM(E7:E19)</f>
         <v>100</v>
       </c>
     </row>
